--- a/data/trans_dic/P02E$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06045763921706501</v>
+        <v>0.05519811618733027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0198122596772036</v>
+        <v>0.02045020095822313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03666956617497727</v>
+        <v>0.03298157634109419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05206152213495151</v>
+        <v>0.05389992016035691</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04649311744744986</v>
+        <v>0.04650577529936847</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0465720608958381</v>
+        <v>0.0472252962655525</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06343036500940383</v>
+        <v>0.06225287560666783</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04357957834974067</v>
+        <v>0.04357086278570969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04770738629698244</v>
+        <v>0.04647402381559042</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1759542679253356</v>
+        <v>0.1773210091963028</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08282535773804346</v>
+        <v>0.08879403778954065</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1130621093727192</v>
+        <v>0.113146838911546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1289049328521231</v>
+        <v>0.1253954069158925</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1067800658635134</v>
+        <v>0.1110946444237526</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1232675625519015</v>
+        <v>0.1229300991729821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1282134817004711</v>
+        <v>0.1297913669441728</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09058933919440279</v>
+        <v>0.08673626283734098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1021285076993079</v>
+        <v>0.0994334040832707</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03778238837704</v>
+        <v>0.03482134743451443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02247686027523793</v>
+        <v>0.02099128503922758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01666279610189643</v>
+        <v>0.01591942866894707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04070548097089787</v>
+        <v>0.04075458895601244</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03864435071069674</v>
+        <v>0.03961961735263324</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06195682044657879</v>
+        <v>0.06228236589851624</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04698176359548839</v>
+        <v>0.04605882004988517</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03504117968996823</v>
+        <v>0.03713576197035847</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04956667057872878</v>
+        <v>0.04720376273500687</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.10758804069035</v>
+        <v>0.1066961158267536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06877106328970123</v>
+        <v>0.07081344696091288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06274118816018166</v>
+        <v>0.06619097833288641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1012896782735517</v>
+        <v>0.1017963489919266</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08345408853709214</v>
+        <v>0.08446833526957598</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1235284725535989</v>
+        <v>0.1236064418882988</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09347672701138152</v>
+        <v>0.08984714536247096</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06697442274970516</v>
+        <v>0.06841827549187157</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09050674405345643</v>
+        <v>0.08988185045532289</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05738524839418635</v>
+        <v>0.06047332672540646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02547543628186892</v>
+        <v>0.02544072928882327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0189067666769857</v>
+        <v>0.01905932735847067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04549502544125515</v>
+        <v>0.04317999822817043</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02073305720844061</v>
+        <v>0.0211959161976676</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05750962084484904</v>
+        <v>0.0581185286626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05649500231193852</v>
+        <v>0.0567561840715843</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02701802388832026</v>
+        <v>0.02769827067580494</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04748417937242779</v>
+        <v>0.04859460754096186</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1636881836927142</v>
+        <v>0.16079528795896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08107082468372595</v>
+        <v>0.08179057960184484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08805155678977139</v>
+        <v>0.08624244436325841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1222542996820643</v>
+        <v>0.1157331754494512</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06221998243836411</v>
+        <v>0.06114127523980802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1305100857630077</v>
+        <v>0.1283362842635474</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.121051544401505</v>
+        <v>0.1192068727935085</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05992481746943566</v>
+        <v>0.06070440916964128</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09948702329744517</v>
+        <v>0.09878142840245133</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0381604430066892</v>
+        <v>0.03709928494020225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04418738907159927</v>
+        <v>0.04459046733331003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03761498423851277</v>
+        <v>0.04127271632297605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01135109334732281</v>
+        <v>0.0113496568306706</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0287099297211493</v>
+        <v>0.02850069362754188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0831319992922418</v>
+        <v>0.08466476078065151</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02787619297076654</v>
+        <v>0.02621628360097174</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04188430549080319</v>
+        <v>0.04129478987813758</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07110822592696209</v>
+        <v>0.07212641302868736</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.110634842540842</v>
+        <v>0.1107641543053369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1170883381844454</v>
+        <v>0.1108665621880621</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1126436241594396</v>
+        <v>0.1135823213756297</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05230878002726878</v>
+        <v>0.05346633273710871</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07332277108375654</v>
+        <v>0.07203031621808174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1557604479825578</v>
+        <v>0.1594926535117554</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06498300505567882</v>
+        <v>0.06310503036544184</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08047033488704429</v>
+        <v>0.08023307860559491</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1280259226132463</v>
+        <v>0.1290566424304365</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7934</v>
+        <v>7243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3938</v>
+        <v>4065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5881</v>
+        <v>5290</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11452</v>
+        <v>11857</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13873</v>
+        <v>13877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9166</v>
+        <v>9295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22277</v>
+        <v>21863</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21666</v>
+        <v>21662</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17042</v>
+        <v>16601</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23090</v>
+        <v>23269</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16464</v>
+        <v>17650</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18134</v>
+        <v>18148</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28356</v>
+        <v>27584</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31862</v>
+        <v>33150</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24262</v>
+        <v>24195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45029</v>
+        <v>45583</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45038</v>
+        <v>43122</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36482</v>
+        <v>35519</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7438</v>
+        <v>6855</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6826</v>
+        <v>6375</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3963</v>
+        <v>3786</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12459</v>
+        <v>12474</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17694</v>
+        <v>18140</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22189</v>
+        <v>22306</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23629</v>
+        <v>23165</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26685</v>
+        <v>28280</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29540</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21179</v>
+        <v>21004</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20884</v>
+        <v>21504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14921</v>
+        <v>15742</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31003</v>
+        <v>31158</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38211</v>
+        <v>38675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44240</v>
+        <v>44268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47013</v>
+        <v>45188</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51004</v>
+        <v>52103</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53938</v>
+        <v>53566</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7330</v>
+        <v>7725</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5622</v>
+        <v>5615</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3101</v>
+        <v>3126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8989</v>
+        <v>8532</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7353</v>
+        <v>7517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14598</v>
+        <v>14753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18379</v>
+        <v>18464</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15544</v>
+        <v>15935</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19841</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20909</v>
+        <v>20540</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17892</v>
+        <v>18051</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14441</v>
+        <v>14144</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24156</v>
+        <v>22867</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22065</v>
+        <v>21682</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33129</v>
+        <v>32577</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39381</v>
+        <v>38781</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34476</v>
+        <v>34925</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>41570</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6502</v>
+        <v>6321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11562</v>
+        <v>11667</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7314</v>
+        <v>8026</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>3203</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11657</v>
+        <v>11572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25121</v>
+        <v>25585</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12615</v>
+        <v>11864</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27965</v>
+        <v>27571</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35315</v>
+        <v>35821</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18849</v>
+        <v>18871</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30637</v>
+        <v>29009</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21904</v>
+        <v>22086</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14760</v>
+        <v>15086</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29770</v>
+        <v>29245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47069</v>
+        <v>48197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29407</v>
+        <v>28558</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>53728</v>
+        <v>53569</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>63583</v>
+        <v>64095</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
     </row>
     <row r="24">
